--- a/taxonomy/taxonomy_studies.xlsx
+++ b/taxonomy/taxonomy_studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabrina/Nextcloud/papers/vulnerability handling AI extended /analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F368B55-EEE6-6B48-BC16-FB79E5EFE1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6CC449-AD1D-0E43-B6CF-E53CF0169539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29920" windowHeight="17300" xr2:uid="{0CD8BF81-F5D9-B345-B2F3-1AD266DCF6BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{0CD8BF81-F5D9-B345-B2F3-1AD266DCF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="TAXONOMY" sheetId="2" r:id="rId1"/>
@@ -901,9 +901,6 @@
     <t>sovranoLargeLanguageModels2025</t>
   </si>
   <si>
-    <t>Own</t>
-  </si>
-  <si>
     <t>zhangBenchmarkingLargeLanguage2025</t>
   </si>
   <si>
@@ -1079,9 +1076,6 @@
   </si>
   <si>
     <t>Localization, Reasoning</t>
-  </si>
-  <si>
-    <t>Own, Kharkar22</t>
   </si>
   <si>
     <t>Zero-Shot, RAG, CoT</t>
@@ -1113,9 +1107,6 @@
   </si>
   <si>
     <t>Google Code Jam</t>
-  </si>
-  <si>
-    <t>Own, DiverseVul, Devign, Lin2017, Choi2017, LineVul, PrimeVul</t>
   </si>
   <si>
     <t>RAG, Zero-Shot, CoT</t>
@@ -1326,9 +1317,6 @@
     <t>Big-Vul, CVEfixes, Juliet C/C++, DiverseVul</t>
   </si>
   <si>
-    <t>Own, Big-Vul, Devign</t>
-  </si>
-  <si>
     <t>Big-Vul, Devign</t>
   </si>
   <si>
@@ -1356,15 +1344,6 @@
     <t>Devign, ReVeal, SVulD</t>
   </si>
   <si>
-    <t>SARD, Own</t>
-  </si>
-  <si>
-    <t>SARD, Devign, Own</t>
-  </si>
-  <si>
-    <t>ReVeal, Big-Vul, Devign, Own</t>
-  </si>
-  <si>
     <t>D2A, Juliet C/C++</t>
   </si>
   <si>
@@ -1398,90 +1377,15 @@
     <t>General LMs, Hybrid - RNN</t>
   </si>
   <si>
-    <t>CVEfixes, JVD, Own, CWE-snippets</t>
-  </si>
-  <si>
-    <t>Own, CASTLE</t>
-  </si>
-  <si>
     <t>PatchDB, DiverseVul, Devign, Big-Vul, CVEfixes, ReVeal, Juliet Java, Juliet C/C++</t>
   </si>
   <si>
-    <t>Own, PairVul</t>
-  </si>
-  <si>
-    <t>FormAI, SySeVR, Draper, Big-Vul, DiverseVul, Juliet C/C++, ReVeal, Own, FalconVulnDB</t>
-  </si>
-  <si>
-    <t>Own, VulBench, MAGMA, Devign, D2A, Big-Vul</t>
-  </si>
-  <si>
-    <t>Own, InstructVul</t>
-  </si>
-  <si>
-    <t>Own, VulF, muVulDeePecker, ReVeal, Devign, D2A</t>
-  </si>
-  <si>
-    <t>D2A, Big-Vul, Own, IoT OS Repositories</t>
-  </si>
-  <si>
-    <t>Own, Vulcorpus</t>
-  </si>
-  <si>
-    <t>Own, CleanVul, PrimeVul, SVEN</t>
-  </si>
-  <si>
-    <t>Own, CWE-Bench-Java</t>
-  </si>
-  <si>
-    <t>Own, DeBinVul, SARD</t>
-  </si>
-  <si>
-    <t>Own, PythonVulnDB</t>
-  </si>
-  <si>
-    <t>Big-Vul, Own, SVulD</t>
-  </si>
-  <si>
-    <t>Devign, VulDeePecker, Own, VulnPatchPairs</t>
-  </si>
-  <si>
     <t>MADE-WIC, Devign, Big-Vul, OSPR</t>
   </si>
   <si>
-    <t>Own, V-Droid</t>
-  </si>
-  <si>
-    <t>Own, SecLLMHolmes</t>
-  </si>
-  <si>
-    <t>SARD, Devign, Own, CWE-basic</t>
-  </si>
-  <si>
-    <t>Own, SecuCoGen</t>
-  </si>
-  <si>
-    <t>Own, VulEval</t>
-  </si>
-  <si>
-    <t>Own, SARD</t>
-  </si>
-  <si>
-    <t>Big-Vul, Own, PreciseBugs</t>
-  </si>
-  <si>
-    <t>Own, VUL_DDCD, SARD, ReVeal, Devign</t>
-  </si>
-  <si>
-    <t>Own, VulSage</t>
-  </si>
-  <si>
     <t>Github PR Vulnerabilities, VulDeePecker, SeVC, ReVeal, Devign</t>
   </si>
   <si>
-    <t>VulDeePecker, SARD, Own</t>
-  </si>
-  <si>
     <t>Pre-Training, Full-Parameter Fine-Tuning</t>
   </si>
   <si>
@@ -1572,9 +1476,6 @@
     <t>Juliet Java, Le2022</t>
   </si>
   <si>
-    <t>Li2023, Lipp2022, Own</t>
-  </si>
-  <si>
     <t>BibTeX</t>
   </si>
   <si>
@@ -1686,9 +1587,6 @@
     <t>xiaStaticPatternMatching2025</t>
   </si>
   <si>
-    <t>Own, SECVULEVAL</t>
-  </si>
-  <si>
     <t>https://arxiv.org/abs/2504.16584</t>
   </si>
   <si>
@@ -1704,21 +1602,12 @@
     <t>CoT</t>
   </si>
   <si>
-    <t>Own, PrimeVul, MoreFixes, ReposVul</t>
-  </si>
-  <si>
     <t>Kang2022</t>
   </si>
   <si>
     <t>Reasoning, Severity, Repair, Testing</t>
   </si>
   <si>
-    <t>Own, VulnDocker, Juliet Java, OWASP Benchmark v1.2</t>
-  </si>
-  <si>
-    <t>Own, Juliet Java, OWASP Benchmark v1.2, PrimeVul</t>
-  </si>
-  <si>
     <t>meloAreSparseAutoencoders2025a</t>
   </si>
   <si>
@@ -1731,16 +1620,7 @@
     <t>Zero-Shot, Few-Shot, Instruction-Tuning</t>
   </si>
   <si>
-    <t>Own, CoV-Eval, Github-CWE, Big-Vul</t>
-  </si>
-  <si>
     <t>Zou2022, Big-Vul</t>
-  </si>
-  <si>
-    <t>Hybrid-Other</t>
-  </si>
-  <si>
-    <t>General LMs, Hybrid-Other</t>
   </si>
   <si>
     <t>SySeVR, VulDeePecker</t>
@@ -5400,6 +5280,126 @@
   author={Ziems, Noah and Wu, Shaoen}
 }
 ```</t>
+  </si>
+  <si>
+    <t>General LMs, Hybrid - Other</t>
+  </si>
+  <si>
+    <t>Hybrid - Other</t>
+  </si>
+  <si>
+    <t>Custom, SECVULEVAL</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>CVEfixes, JVD, Custom, CWE-snippets</t>
+  </si>
+  <si>
+    <t>Custom, CASTLE</t>
+  </si>
+  <si>
+    <t>Custom, PairVul</t>
+  </si>
+  <si>
+    <t>FormAI, SySeVR, Draper, Big-Vul, DiverseVul, Juliet C/C++, ReVeal, Custom, FalconVulnDB</t>
+  </si>
+  <si>
+    <t>Custom, VulBench, MAGMA, Devign, D2A, Big-Vul</t>
+  </si>
+  <si>
+    <t>Custom, DiverseVul, Devign, Lin2017, Choi2017, LineVul, PrimeVul</t>
+  </si>
+  <si>
+    <t>Custom, InstructVul</t>
+  </si>
+  <si>
+    <t>Custom, VulF, muVulDeePecker, ReVeal, Devign, D2A</t>
+  </si>
+  <si>
+    <t>D2A, Big-Vul, Custom, IoT OS Repositories</t>
+  </si>
+  <si>
+    <t>VulDeePecker, SARD, Custom</t>
+  </si>
+  <si>
+    <t>Custom, Vulcorpus</t>
+  </si>
+  <si>
+    <t>Custom, CleanVul, PrimeVul, SVEN</t>
+  </si>
+  <si>
+    <t>Custom, PrimeVul, MoreFixes, ReposVul</t>
+  </si>
+  <si>
+    <t>Custom, CWE-Bench-Java</t>
+  </si>
+  <si>
+    <t>Custom, Big-Vul, Devign</t>
+  </si>
+  <si>
+    <t>Custom, VulnDocker, Juliet Java, OWASP Benchmark v1.2</t>
+  </si>
+  <si>
+    <t>Custom, Juliet Java, OWASP Benchmark v1.2, PrimeVul</t>
+  </si>
+  <si>
+    <t>Custom, DeBinVul, SARD</t>
+  </si>
+  <si>
+    <t>Custom, PythonVulnDB</t>
+  </si>
+  <si>
+    <t>SARD, Custom</t>
+  </si>
+  <si>
+    <t>Custom, Kharkar22</t>
+  </si>
+  <si>
+    <t>Custom, CoV-Eval, Github-CWE, Big-Vul</t>
+  </si>
+  <si>
+    <t>Big-Vul, Custom, SVulD</t>
+  </si>
+  <si>
+    <t>Devign, VulDeePecker, Custom, VulnPatchPairs</t>
+  </si>
+  <si>
+    <t>Custom, V-Droid</t>
+  </si>
+  <si>
+    <t>Custom, SecLLMHolmes</t>
+  </si>
+  <si>
+    <t>SARD, Devign, Custom, CWE-basic</t>
+  </si>
+  <si>
+    <t>Custom, SecuCoGen</t>
+  </si>
+  <si>
+    <t>Custom, SARD</t>
+  </si>
+  <si>
+    <t>Custom, VulEval</t>
+  </si>
+  <si>
+    <t>SARD, Devign, Custom</t>
+  </si>
+  <si>
+    <t>Big-Vul, Custom, PreciseBugs</t>
+  </si>
+  <si>
+    <t>Custom, VUL_DDCD, SARD, ReVeal, Devign</t>
+  </si>
+  <si>
+    <t>ReVeal, Big-Vul, Devign, Custom</t>
+  </si>
+  <si>
+    <t>Li2023, Lipp2022, Custom</t>
+  </si>
+  <si>
+    <t>Custom, VulSage</t>
   </si>
 </sst>
 </file>
@@ -5885,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E2F0CF-856A-D744-AC6E-C6871A5E14AF}">
   <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+    <sheetView tabSelected="1" topLeftCell="F202" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L227" sqref="L227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5911,25 +5911,25 @@
         <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>118</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5949,13 +5949,13 @@
         <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="E2" s="4">
         <v>44265</v>
@@ -5968,13 +5968,13 @@
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J2" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
@@ -5982,16 +5982,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="D3" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="E3" s="4">
         <v>45803</v>
@@ -6003,33 +6003,33 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L3" t="s">
-        <v>535</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="E4" s="4">
         <v>45787</v>
@@ -6042,13 +6042,13 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="K4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
@@ -6059,10 +6059,10 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>922</v>
+        <v>882</v>
       </c>
       <c r="C5" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="4">
@@ -6072,22 +6072,22 @@
         <v>45537</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J5" t="s">
         <v>321</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>322</v>
       </c>
-      <c r="K5" t="s">
-        <v>323</v>
-      </c>
       <c r="L5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -6108,20 +6108,20 @@
         <v>45509</v>
       </c>
       <c r="G6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J6" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6129,13 +6129,13 @@
         <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="E7" s="4">
         <v>45646</v>
@@ -6148,13 +6148,13 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L7" t="s">
         <v>115</v>
@@ -6165,7 +6165,7 @@
         <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -6178,17 +6178,17 @@
         <v>45479</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -6199,10 +6199,10 @@
         <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="4">
@@ -6215,16 +6215,16 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I9" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -6235,13 +6235,13 @@
         <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="E10" s="4">
         <v>45166</v>
@@ -6250,19 +6250,19 @@
         <v>45166</v>
       </c>
       <c r="G10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" t="s">
         <v>321</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>322</v>
-      </c>
-      <c r="K10" t="s">
-        <v>323</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -6270,16 +6270,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="E11" s="4">
         <v>45770</v>
@@ -6292,16 +6292,16 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L11" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6309,7 +6309,7 @@
         <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -6326,13 +6326,13 @@
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J12" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
@@ -6343,13 +6343,13 @@
         <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>925</v>
+        <v>885</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="E13" s="4">
         <v>45432</v>
@@ -6362,16 +6362,16 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6379,10 +6379,10 @@
         <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="4">
@@ -6392,17 +6392,17 @@
         <v>45575</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J14" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="K14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L14" t="s">
         <v>76</v>
@@ -6413,7 +6413,7 @@
         <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -6426,20 +6426,20 @@
         <v>45675</v>
       </c>
       <c r="G15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6447,13 +6447,13 @@
         <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>926</v>
+        <v>886</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="D16" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="E16" s="4">
         <v>45593</v>
@@ -6466,16 +6466,16 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6483,7 +6483,7 @@
         <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
@@ -6496,20 +6496,20 @@
         <v>45069</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J17" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="K17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L17" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6517,13 +6517,13 @@
         <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="E18" s="4">
         <v>45427</v>
@@ -6536,13 +6536,13 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J18" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L18" t="s">
         <v>51</v>
@@ -6553,13 +6553,13 @@
         <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="E19" s="4">
         <v>45017</v>
@@ -6568,34 +6568,34 @@
         <v>45215</v>
       </c>
       <c r="G19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J19" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="B20" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="C20" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="D20" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="E20" s="4">
         <v>45838</v>
@@ -6607,16 +6607,16 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J20" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L20" t="s">
         <v>97</v>
@@ -6627,7 +6627,7 @@
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -6640,20 +6640,20 @@
         <v>45028</v>
       </c>
       <c r="G21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" t="s">
         <v>321</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>322</v>
       </c>
-      <c r="K21" t="s">
-        <v>323</v>
-      </c>
       <c r="L21" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -6661,10 +6661,10 @@
         <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="C22" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="4">
@@ -6677,19 +6677,19 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J22" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="K22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L22" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -6697,10 +6697,10 @@
         <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="C23" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="4">
@@ -6710,20 +6710,20 @@
         <v>45537</v>
       </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J23" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="K23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -6731,7 +6731,7 @@
         <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -6744,19 +6744,19 @@
         <v>45481</v>
       </c>
       <c r="G24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" t="s">
+        <v>318</v>
+      </c>
+      <c r="I24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J24" t="s">
+        <v>530</v>
+      </c>
+      <c r="K24" t="s">
         <v>314</v>
-      </c>
-      <c r="H24" t="s">
-        <v>319</v>
-      </c>
-      <c r="I24" t="s">
-        <v>316</v>
-      </c>
-      <c r="J24" t="s">
-        <v>570</v>
-      </c>
-      <c r="K24" t="s">
-        <v>315</v>
       </c>
       <c r="L24" t="s">
         <v>97</v>
@@ -6764,13 +6764,13 @@
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>592</v>
+      </c>
+      <c r="C25" t="s">
         <v>307</v>
-      </c>
-      <c r="B25" t="s">
-        <v>632</v>
-      </c>
-      <c r="C25" t="s">
-        <v>308</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="4">
@@ -6780,22 +6780,22 @@
         <v>45734</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
+        <v>320</v>
+      </c>
+      <c r="J25" t="s">
         <v>321</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>322</v>
       </c>
-      <c r="K25" t="s">
-        <v>323</v>
-      </c>
       <c r="L25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -6803,13 +6803,13 @@
         <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="C26" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="D26" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="E26" s="4">
         <v>45720</v>
@@ -6822,13 +6822,13 @@
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J26" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="K26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L26" t="s">
         <v>5</v>
@@ -6839,13 +6839,13 @@
         <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>933</v>
+        <v>893</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="E27" s="4">
         <v>45571</v>
@@ -6858,16 +6858,16 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J27" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -6875,10 +6875,10 @@
         <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="4">
@@ -6891,19 +6891,19 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J28" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -6911,13 +6911,13 @@
         <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="C29" t="s">
         <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="E29" s="4">
         <v>45090</v>
@@ -6930,13 +6930,13 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J29" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="K29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L29" t="s">
         <v>78</v>
@@ -6947,13 +6947,13 @@
         <v>279</v>
       </c>
       <c r="B30" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="C30" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="D30" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="E30" s="4">
         <v>45378</v>
@@ -6966,16 +6966,16 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J30" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="K30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -6996,22 +6996,22 @@
         <v>45664</v>
       </c>
       <c r="G31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -7019,7 +7019,7 @@
         <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
@@ -7032,34 +7032,34 @@
         <v>45516</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s">
-        <v>439</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="C33" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="D33" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="E33" s="4">
         <v>45728</v>
@@ -7072,16 +7072,16 @@
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" t="s">
         <v>321</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>322</v>
       </c>
-      <c r="K33" t="s">
-        <v>323</v>
-      </c>
       <c r="L33" t="s">
-        <v>440</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -7089,13 +7089,13 @@
         <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="E34" s="4">
         <v>45449</v>
@@ -7107,19 +7107,19 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="K34" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L34" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>938</v>
+        <v>898</v>
       </c>
       <c r="C35" t="s">
         <v>111</v>
@@ -7144,16 +7144,16 @@
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -7161,13 +7161,13 @@
         <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>919</v>
+        <v>879</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="E36" s="4">
         <v>45460</v>
@@ -7179,19 +7179,19 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
-        <v>442</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -7199,10 +7199,10 @@
         <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>939</v>
+        <v>899</v>
       </c>
       <c r="C37" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="4">
@@ -7216,16 +7216,16 @@
       </c>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -7233,13 +7233,13 @@
         <v>235</v>
       </c>
       <c r="B38" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="C38" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="D38" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
       <c r="E38" s="4">
         <v>45359</v>
@@ -7252,16 +7252,16 @@
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -7269,7 +7269,7 @@
         <v>220</v>
       </c>
       <c r="B39" t="s">
-        <v>941</v>
+        <v>901</v>
       </c>
       <c r="C39" t="s">
         <v>71</v>
@@ -7282,22 +7282,22 @@
         <v>45553</v>
       </c>
       <c r="G39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
         <v>321</v>
       </c>
-      <c r="J39" t="s">
-        <v>322</v>
-      </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -7305,10 +7305,10 @@
         <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="C40" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="4">
@@ -7321,30 +7321,30 @@
         <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
         <v>322</v>
       </c>
-      <c r="K40" t="s">
-        <v>323</v>
-      </c>
       <c r="L40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="C41" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="4">
@@ -7358,13 +7358,13 @@
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -7375,7 +7375,7 @@
         <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
@@ -7392,13 +7392,13 @@
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -7409,10 +7409,10 @@
         <v>241</v>
       </c>
       <c r="B43" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="C43" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="4">
@@ -7422,20 +7422,20 @@
         <v>45721</v>
       </c>
       <c r="G43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J43" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s">
-        <v>443</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -7443,13 +7443,13 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="E44" s="4">
         <v>45072</v>
@@ -7461,16 +7461,16 @@
         <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J44" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s">
         <v>97</v>
@@ -7481,13 +7481,13 @@
         <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="C45" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="D45" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="E45" s="4">
         <v>45264</v>
@@ -7496,19 +7496,19 @@
         <v>45264</v>
       </c>
       <c r="G45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
         <v>321</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>322</v>
-      </c>
-      <c r="K45" t="s">
-        <v>323</v>
       </c>
       <c r="L45" t="s">
         <v>97</v>
@@ -7519,13 +7519,13 @@
         <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="E46" s="4">
         <v>44699</v>
@@ -7537,16 +7537,16 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J46" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
         <v>97</v>
@@ -7557,13 +7557,13 @@
         <v>275</v>
       </c>
       <c r="B47" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="C47" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="D47" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="E47" s="4">
         <v>45154</v>
@@ -7576,13 +7576,13 @@
       </c>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J47" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s">
         <v>97</v>
@@ -7593,13 +7593,13 @@
         <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="E48" s="4">
         <v>45251</v>
@@ -7608,20 +7608,20 @@
         <v>45282</v>
       </c>
       <c r="G48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s">
-        <v>444</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7629,13 +7629,13 @@
         <v>204</v>
       </c>
       <c r="B49" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="C49" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="D49" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="E49" s="4">
         <v>44964</v>
@@ -7648,27 +7648,27 @@
       </c>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J49" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="C50" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="4">
@@ -7682,13 +7682,13 @@
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J50" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="K50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -7699,13 +7699,13 @@
         <v>199</v>
       </c>
       <c r="B51" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="E51" s="4">
         <v>45524</v>
@@ -7714,19 +7714,19 @@
         <v>45821</v>
       </c>
       <c r="G51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I51" t="s">
+        <v>320</v>
+      </c>
+      <c r="J51" t="s">
         <v>321</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>322</v>
-      </c>
-      <c r="K51" t="s">
-        <v>323</v>
       </c>
       <c r="L51" t="s">
         <v>38</v>
@@ -7737,13 +7737,13 @@
         <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="C52" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="D52" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="E52" s="4">
         <v>45054</v>
@@ -7752,20 +7752,20 @@
         <v>45260</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J52" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -7773,7 +7773,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>951</v>
+        <v>911</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
@@ -7790,13 +7790,13 @@
       </c>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J53" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L53" t="s">
         <v>96</v>
@@ -7807,10 +7807,10 @@
         <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>952</v>
+        <v>912</v>
       </c>
       <c r="C54" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="4">
@@ -7824,16 +7824,16 @@
       </c>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -7841,7 +7841,7 @@
         <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>953</v>
+        <v>913</v>
       </c>
       <c r="C55" t="s">
         <v>75</v>
@@ -7858,16 +7858,16 @@
       </c>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J55" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="K55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s">
-        <v>356</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -7875,13 +7875,13 @@
         <v>237</v>
       </c>
       <c r="B56" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="C56" t="s">
         <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="E56" s="4">
         <v>45687</v>
@@ -7890,20 +7890,20 @@
         <v>45806</v>
       </c>
       <c r="G56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J56" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L56" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -7911,7 +7911,7 @@
         <v>284</v>
       </c>
       <c r="B57" t="s">
-        <v>954</v>
+        <v>914</v>
       </c>
       <c r="C57" t="s">
         <v>110</v>
@@ -7928,30 +7928,30 @@
       </c>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J57" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K57" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="C58" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="D58" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="E58" s="4">
         <v>45832</v>
@@ -7963,19 +7963,19 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J58" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -7983,13 +7983,13 @@
         <v>268</v>
       </c>
       <c r="B59" t="s">
-        <v>955</v>
+        <v>915</v>
       </c>
       <c r="C59" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="D59" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="E59" s="4">
         <v>44706</v>
@@ -7998,34 +7998,34 @@
         <v>44760</v>
       </c>
       <c r="G59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J59" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s">
-        <v>956</v>
+        <v>916</v>
       </c>
       <c r="C60" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="D60" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="E60" s="4">
         <v>44630</v>
@@ -8038,13 +8038,13 @@
       </c>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L60" t="s">
         <v>97</v>
@@ -8055,10 +8055,10 @@
         <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>957</v>
+        <v>917</v>
       </c>
       <c r="C61" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="D61"/>
       <c r="E61" s="4">
@@ -8072,13 +8072,13 @@
       </c>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J61" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K61" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s">
         <v>96</v>
@@ -8089,10 +8089,10 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>958</v>
+        <v>918</v>
       </c>
       <c r="C62" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
       <c r="D62"/>
       <c r="E62" s="4">
@@ -8102,34 +8102,34 @@
         <v>45659</v>
       </c>
       <c r="G62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J62" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L62" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="B63" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
       <c r="C63" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
       <c r="D63" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="E63" s="4">
         <v>45831</v>
@@ -8138,19 +8138,19 @@
         <v>45831</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -8158,13 +8158,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="C64" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="4">
@@ -8178,16 +8178,16 @@
       </c>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J64" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="K64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -8195,10 +8195,10 @@
         <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="C65" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="4">
@@ -8208,19 +8208,19 @@
         <v>45384</v>
       </c>
       <c r="G65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L65" t="s">
         <v>80</v>
@@ -8231,7 +8231,7 @@
         <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -8247,19 +8247,19 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -8267,13 +8267,13 @@
         <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>962</v>
+        <v>922</v>
       </c>
       <c r="C67" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="D67" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="E67" s="4">
         <v>45033</v>
@@ -8286,16 +8286,16 @@
       </c>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J67" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K67" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -8303,7 +8303,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
       <c r="C68" t="s">
         <v>88</v>
@@ -8319,19 +8319,19 @@
         <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I68" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J68" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L68" t="s">
-        <v>447</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -8339,13 +8339,13 @@
         <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>963</v>
+        <v>923</v>
       </c>
       <c r="C69" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="D69" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="E69" s="4">
         <v>45497</v>
@@ -8358,16 +8358,16 @@
       </c>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J69" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L69" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -8375,13 +8375,13 @@
         <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="E70" s="4">
         <v>45650</v>
@@ -8394,16 +8394,16 @@
       </c>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J70" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="K70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -8411,13 +8411,13 @@
         <v>252</v>
       </c>
       <c r="B71" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="C71" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="D71" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="E71" s="4">
         <v>45573</v>
@@ -8430,13 +8430,13 @@
       </c>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J71" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L71" t="s">
         <v>97</v>
@@ -8447,10 +8447,10 @@
         <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>965</v>
+        <v>925</v>
       </c>
       <c r="C72" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="4">
@@ -8464,16 +8464,16 @@
       </c>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J72" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K72" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -8481,7 +8481,7 @@
         <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="C73" t="s">
         <v>56</v>
@@ -8498,27 +8498,27 @@
       </c>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J73" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L73" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="C74" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="4">
@@ -8532,16 +8532,16 @@
       </c>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J74" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -8549,13 +8549,13 @@
         <v>276</v>
       </c>
       <c r="B75" t="s">
-        <v>968</v>
+        <v>928</v>
       </c>
       <c r="C75" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="D75" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="E75" s="4">
         <v>45474</v>
@@ -8568,13 +8568,13 @@
       </c>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J75" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L75" t="s">
         <v>107</v>
@@ -8585,13 +8585,13 @@
         <v>280</v>
       </c>
       <c r="B76" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="C76" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="D76" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="E76" s="4">
         <v>45586</v>
@@ -8604,16 +8604,16 @@
       </c>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J76" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L76" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -8621,7 +8621,7 @@
         <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
       <c r="C77" t="s">
         <v>44</v>
@@ -8638,16 +8638,16 @@
       </c>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L77" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -8655,10 +8655,10 @@
         <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="C78" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="4">
@@ -8671,19 +8671,19 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J78" t="s">
+        <v>321</v>
+      </c>
+      <c r="K78" t="s">
         <v>322</v>
       </c>
-      <c r="K78" t="s">
-        <v>323</v>
-      </c>
       <c r="L78" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -8691,13 +8691,13 @@
         <v>262</v>
       </c>
       <c r="B79" t="s">
-        <v>971</v>
+        <v>931</v>
       </c>
       <c r="C79" t="s">
-        <v>702</v>
+        <v>662</v>
       </c>
       <c r="D79" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="E79" s="4">
         <v>45215</v>
@@ -8706,20 +8706,20 @@
         <v>45747</v>
       </c>
       <c r="G79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J79" t="s">
+        <v>321</v>
+      </c>
+      <c r="K79" t="s">
         <v>322</v>
       </c>
-      <c r="K79" t="s">
-        <v>323</v>
-      </c>
       <c r="L79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -8727,13 +8727,13 @@
         <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>972</v>
+        <v>932</v>
       </c>
       <c r="C80" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="D80" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="E80" s="4">
         <v>45505</v>
@@ -8746,16 +8746,16 @@
       </c>
       <c r="H80"/>
       <c r="I80" t="s">
+        <v>320</v>
+      </c>
+      <c r="J80" t="s">
         <v>321</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>322</v>
       </c>
-      <c r="K80" t="s">
-        <v>323</v>
-      </c>
       <c r="L80" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -8763,13 +8763,13 @@
         <v>270</v>
       </c>
       <c r="B81" t="s">
-        <v>973</v>
+        <v>933</v>
       </c>
       <c r="C81" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="D81" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="E81" s="4">
         <v>44865</v>
@@ -8782,27 +8782,27 @@
       </c>
       <c r="H81"/>
       <c r="I81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J81" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K81" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L81" t="s">
-        <v>466</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s">
-        <v>974</v>
+        <v>934</v>
       </c>
       <c r="C82" t="s">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="4">
@@ -8816,16 +8816,16 @@
       </c>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J82" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L82" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -8833,10 +8833,10 @@
         <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="C83" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="4">
@@ -8849,30 +8849,30 @@
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L83" t="s">
-        <v>448</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="C84" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="4">
@@ -8886,27 +8886,27 @@
       </c>
       <c r="H84"/>
       <c r="I84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J84" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L84" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>976</v>
+        <v>936</v>
       </c>
       <c r="C85" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="4">
@@ -8920,16 +8920,16 @@
       </c>
       <c r="H85"/>
       <c r="I85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J85" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -8937,13 +8937,13 @@
         <v>251</v>
       </c>
       <c r="B86" t="s">
-        <v>977</v>
+        <v>937</v>
       </c>
       <c r="C86" t="s">
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="E86" s="4">
         <v>45408</v>
@@ -8955,16 +8955,16 @@
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J86" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="K86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L86" t="s">
         <v>82</v>
@@ -8975,7 +8975,7 @@
         <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>978</v>
+        <v>938</v>
       </c>
       <c r="C87" t="s">
         <v>95</v>
@@ -8992,16 +8992,16 @@
       </c>
       <c r="H87"/>
       <c r="I87" t="s">
+        <v>429</v>
+      </c>
+      <c r="J87" t="s">
         <v>436</v>
       </c>
-      <c r="J87" t="s">
-        <v>468</v>
-      </c>
       <c r="K87" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -9009,13 +9009,13 @@
         <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="E88" s="4">
         <v>45622</v>
@@ -9028,16 +9028,16 @@
       </c>
       <c r="H88"/>
       <c r="I88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J88" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L88" t="s">
-        <v>449</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -9045,13 +9045,13 @@
         <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>979</v>
+        <v>939</v>
       </c>
       <c r="C89" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="D89" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="E89" s="4">
         <v>45411</v>
@@ -9063,16 +9063,16 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J89" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L89" t="s">
         <v>29</v>
@@ -9080,13 +9080,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="C90" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="4">
@@ -9099,19 +9099,19 @@
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J90" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="K90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L90" t="s">
-        <v>541</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -9119,13 +9119,13 @@
         <v>214</v>
       </c>
       <c r="B91" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="C91" t="s">
         <v>67</v>
       </c>
       <c r="D91" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="E91" s="4">
         <v>45439</v>
@@ -9134,22 +9134,22 @@
         <v>45753</v>
       </c>
       <c r="G91" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J91" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K91" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L91" t="s">
-        <v>450</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -9157,7 +9157,7 @@
         <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
@@ -9170,20 +9170,20 @@
         <v>44893</v>
       </c>
       <c r="G92" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J92" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L92" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -9191,10 +9191,10 @@
         <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="C93" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="4">
@@ -9208,27 +9208,27 @@
       </c>
       <c r="H93"/>
       <c r="I93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J93" t="s">
+        <v>321</v>
+      </c>
+      <c r="K93" t="s">
         <v>322</v>
       </c>
-      <c r="K93" t="s">
-        <v>323</v>
-      </c>
       <c r="L93" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="B94" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="C94" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="4">
@@ -9241,30 +9241,30 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I94" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J94" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K94" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L94" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s">
-        <v>917</v>
+        <v>877</v>
       </c>
       <c r="C95" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="4">
@@ -9274,33 +9274,33 @@
         <v>45828</v>
       </c>
       <c r="G95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J95" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L95" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>982</v>
+        <v>942</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="4">
@@ -9314,30 +9314,30 @@
       </c>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J96" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="K96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L96" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="B97" t="s">
-        <v>983</v>
+        <v>943</v>
       </c>
       <c r="C97" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="D97" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="E97" s="4">
         <v>45789</v>
@@ -9346,22 +9346,22 @@
         <v>45789</v>
       </c>
       <c r="G97" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="H97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J97" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L97" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -9369,13 +9369,13 @@
         <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>984</v>
+        <v>944</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="D98" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="E98" s="4">
         <v>45626</v>
@@ -9388,16 +9388,16 @@
       </c>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J98" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="K98" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L98" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -9405,10 +9405,10 @@
         <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>985</v>
+        <v>945</v>
       </c>
       <c r="C99" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="4">
@@ -9422,16 +9422,16 @@
       </c>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K99" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L99" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -9439,13 +9439,13 @@
         <v>232</v>
       </c>
       <c r="B100" t="s">
-        <v>986</v>
+        <v>946</v>
       </c>
       <c r="C100" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="D100" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="E100" s="4">
         <v>45323</v>
@@ -9454,20 +9454,20 @@
         <v>45391</v>
       </c>
       <c r="G100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J100" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -9475,10 +9475,10 @@
         <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>987</v>
+        <v>947</v>
       </c>
       <c r="C101" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="4">
@@ -9492,13 +9492,13 @@
       </c>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L101" t="s">
         <v>5</v>
@@ -9509,7 +9509,7 @@
         <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>737</v>
+        <v>697</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
@@ -9525,33 +9525,33 @@
         <v>36</v>
       </c>
       <c r="H102" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L102" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="B103" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="C103" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="D103" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="E103" s="4">
         <v>45803</v>
@@ -9563,19 +9563,19 @@
         <v>36</v>
       </c>
       <c r="H103" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="I103" t="s">
+        <v>320</v>
+      </c>
+      <c r="J103" t="s">
         <v>321</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>322</v>
       </c>
-      <c r="K103" t="s">
-        <v>323</v>
-      </c>
       <c r="L103" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -9583,13 +9583,13 @@
         <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>742</v>
+        <v>702</v>
       </c>
       <c r="C104" t="s">
         <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="E104" s="4">
         <v>45454</v>
@@ -9598,22 +9598,22 @@
         <v>45525</v>
       </c>
       <c r="G104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J104" t="s">
+        <v>321</v>
+      </c>
+      <c r="K104" t="s">
         <v>322</v>
       </c>
-      <c r="K104" t="s">
-        <v>323</v>
-      </c>
       <c r="L104" t="s">
-        <v>415</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -9621,13 +9621,13 @@
         <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>988</v>
+        <v>948</v>
       </c>
       <c r="C105" t="s">
         <v>105</v>
       </c>
       <c r="D105" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="E105" s="4">
         <v>45405</v>
@@ -9640,16 +9640,16 @@
       </c>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J105" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="K105" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L105" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -9657,13 +9657,13 @@
         <v>131</v>
       </c>
       <c r="B106" t="s">
-        <v>989</v>
+        <v>949</v>
       </c>
       <c r="C106" t="s">
         <v>55</v>
       </c>
       <c r="D106" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="E106" s="4">
         <v>45264</v>
@@ -9672,20 +9672,20 @@
         <v>45264</v>
       </c>
       <c r="G106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J106" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="K106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L106" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -9693,13 +9693,13 @@
         <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="C107" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="D107" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="E107" s="4">
         <v>45377</v>
@@ -9708,20 +9708,20 @@
         <v>45377</v>
       </c>
       <c r="G107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J107" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="K107" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L107" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -9729,10 +9729,10 @@
         <v>159</v>
       </c>
       <c r="B108" t="s">
-        <v>991</v>
+        <v>951</v>
       </c>
       <c r="C108" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="4">
@@ -9746,13 +9746,13 @@
       </c>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J108" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K108" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L108" t="s">
         <v>32</v>
@@ -9760,13 +9760,13 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="C109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="4">
@@ -9780,27 +9780,27 @@
       </c>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J109" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="K109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L109" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="B110" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="C110" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
       <c r="D110"/>
       <c r="E110" s="4">
@@ -9810,33 +9810,33 @@
         <v>45765</v>
       </c>
       <c r="G110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J110" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K110" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L110" t="s">
-        <v>544</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="B111" t="s">
-        <v>992</v>
+        <v>952</v>
       </c>
       <c r="C111" t="s">
-        <v>751</v>
+        <v>711</v>
       </c>
       <c r="D111"/>
       <c r="E111" s="4">
@@ -9846,22 +9846,22 @@
         <v>45771</v>
       </c>
       <c r="G111" t="s">
+        <v>313</v>
+      </c>
+      <c r="H111" t="s">
+        <v>377</v>
+      </c>
+      <c r="I111" t="s">
+        <v>315</v>
+      </c>
+      <c r="J111" t="s">
+        <v>404</v>
+      </c>
+      <c r="K111" t="s">
         <v>314</v>
       </c>
-      <c r="H111" t="s">
-        <v>380</v>
-      </c>
-      <c r="I111" t="s">
-        <v>316</v>
-      </c>
-      <c r="J111" t="s">
-        <v>407</v>
-      </c>
-      <c r="K111" t="s">
-        <v>315</v>
-      </c>
       <c r="L111" t="s">
-        <v>545</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -9869,13 +9869,13 @@
         <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>993</v>
+        <v>953</v>
       </c>
       <c r="C112" t="s">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="D112" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="E112" s="4">
         <v>44900</v>
@@ -9884,20 +9884,20 @@
         <v>44900</v>
       </c>
       <c r="G112" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H112"/>
       <c r="I112" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J112" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L112" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -9905,7 +9905,7 @@
         <v>174</v>
       </c>
       <c r="B113" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="C113" t="s">
         <v>33</v>
@@ -9918,20 +9918,20 @@
         <v>45603</v>
       </c>
       <c r="G113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J113" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K113" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L113" t="s">
-        <v>451</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -9939,7 +9939,7 @@
         <v>257</v>
       </c>
       <c r="B114" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="C114" t="s">
         <v>84</v>
@@ -9952,22 +9952,22 @@
         <v>45678</v>
       </c>
       <c r="G114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H114" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J114" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="K114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L114" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -9975,7 +9975,7 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>918</v>
+        <v>878</v>
       </c>
       <c r="C115" t="s">
         <v>66</v>
@@ -9992,16 +9992,16 @@
       </c>
       <c r="H115"/>
       <c r="I115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J115" t="s">
+        <v>334</v>
+      </c>
+      <c r="K115" t="s">
+        <v>322</v>
+      </c>
+      <c r="L115" t="s">
         <v>335</v>
-      </c>
-      <c r="K115" t="s">
-        <v>323</v>
-      </c>
-      <c r="L115" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -10009,10 +10009,10 @@
         <v>242</v>
       </c>
       <c r="B116" t="s">
-        <v>994</v>
+        <v>954</v>
       </c>
       <c r="C116" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
       <c r="D116"/>
       <c r="E116" s="4">
@@ -10026,16 +10026,16 @@
       </c>
       <c r="H116"/>
       <c r="I116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J116" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L116" t="s">
-        <v>452</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -10043,10 +10043,10 @@
         <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="C117" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="4">
@@ -10060,27 +10060,27 @@
       </c>
       <c r="H117"/>
       <c r="I117" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J117" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L117" t="s">
-        <v>425</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="B118" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="C118" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="D118"/>
       <c r="E118" s="4">
@@ -10094,16 +10094,16 @@
       </c>
       <c r="H118"/>
       <c r="I118" t="s">
-        <v>553</v>
+        <v>1022</v>
       </c>
       <c r="J118" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L118" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -10111,13 +10111,13 @@
         <v>169</v>
       </c>
       <c r="B119" t="s">
-        <v>996</v>
+        <v>956</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
       </c>
       <c r="D119" t="s">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="E119" s="4">
         <v>45483</v>
@@ -10126,36 +10126,36 @@
         <v>45483</v>
       </c>
       <c r="G119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J119" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L119" t="s">
-        <v>348</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="B120" t="s">
-        <v>763</v>
+        <v>723</v>
       </c>
       <c r="C120" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="D120" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="E120" s="4">
         <v>45792</v>
@@ -10164,33 +10164,33 @@
         <v>45792</v>
       </c>
       <c r="G120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H120" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="I120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J120" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="K120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L120" t="s">
-        <v>550</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="B121" t="s">
-        <v>997</v>
+        <v>957</v>
       </c>
       <c r="C121" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="4">
@@ -10200,20 +10200,20 @@
         <v>45780</v>
       </c>
       <c r="G121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H121"/>
       <c r="I121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K121" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -10221,7 +10221,7 @@
         <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>765</v>
+        <v>725</v>
       </c>
       <c r="C122" t="s">
         <v>77</v>
@@ -10238,13 +10238,13 @@
       </c>
       <c r="H122"/>
       <c r="I122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J122" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="K122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s">
         <v>78</v>
@@ -10255,13 +10255,13 @@
         <v>164</v>
       </c>
       <c r="B123" t="s">
-        <v>998</v>
+        <v>958</v>
       </c>
       <c r="C123" t="s">
         <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="E123" s="4">
         <v>45160</v>
@@ -10273,19 +10273,19 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J123" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="K123" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L123" t="s">
-        <v>453</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -10293,13 +10293,13 @@
         <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>999</v>
+        <v>959</v>
       </c>
       <c r="C124" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
       <c r="D124" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
       <c r="E124" s="4">
         <v>45180</v>
@@ -10312,13 +10312,13 @@
       </c>
       <c r="H124"/>
       <c r="I124" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J124" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K124" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L124" t="s">
         <v>97</v>
@@ -10329,13 +10329,13 @@
         <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="C125" t="s">
         <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="E125" s="4">
         <v>45518</v>
@@ -10348,13 +10348,13 @@
       </c>
       <c r="H125"/>
       <c r="I125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J125" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L125" t="s">
         <v>63</v>
@@ -10365,7 +10365,7 @@
         <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="C126" t="s">
         <v>49</v>
@@ -10381,19 +10381,19 @@
         <v>36</v>
       </c>
       <c r="H126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I126" t="s">
+        <v>320</v>
+      </c>
+      <c r="J126" t="s">
         <v>321</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>322</v>
       </c>
-      <c r="K126" t="s">
-        <v>323</v>
-      </c>
       <c r="L126" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -10401,7 +10401,7 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
@@ -10414,17 +10414,17 @@
         <v>45349</v>
       </c>
       <c r="G127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H127"/>
       <c r="I127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J127" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L127" t="s">
         <v>96</v>
@@ -10435,13 +10435,13 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="E128" s="4">
         <v>45551</v>
@@ -10453,16 +10453,16 @@
         <v>36</v>
       </c>
       <c r="H128" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J128" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L128" t="s">
         <v>38</v>
@@ -10473,10 +10473,10 @@
         <v>271</v>
       </c>
       <c r="B129" t="s">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="C129" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
       <c r="D129"/>
       <c r="E129" s="4">
@@ -10490,16 +10490,16 @@
       </c>
       <c r="H129"/>
       <c r="I129" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J129" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="K129" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L129" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -10507,10 +10507,10 @@
         <v>272</v>
       </c>
       <c r="B130" t="s">
-        <v>1001</v>
+        <v>961</v>
       </c>
       <c r="C130" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="D130"/>
       <c r="E130" s="4">
@@ -10524,13 +10524,13 @@
       </c>
       <c r="H130"/>
       <c r="I130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J130" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K130" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L130" t="s">
         <v>106</v>
@@ -10541,13 +10541,13 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>1002</v>
+        <v>962</v>
       </c>
       <c r="C131" t="s">
         <v>72</v>
       </c>
       <c r="D131" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="E131" s="4">
         <v>45091</v>
@@ -10560,16 +10560,16 @@
       </c>
       <c r="H131"/>
       <c r="I131" t="s">
+        <v>320</v>
+      </c>
+      <c r="J131" t="s">
         <v>321</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>322</v>
       </c>
-      <c r="K131" t="s">
-        <v>323</v>
-      </c>
       <c r="L131" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -10577,13 +10577,13 @@
         <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>1003</v>
+        <v>963</v>
       </c>
       <c r="C132" t="s">
         <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="E132" s="4">
         <v>44339</v>
@@ -10596,13 +10596,13 @@
       </c>
       <c r="H132"/>
       <c r="I132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J132" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L132" t="s">
         <v>94</v>
@@ -10610,16 +10610,16 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="B133" t="s">
-        <v>1004</v>
+        <v>964</v>
       </c>
       <c r="C133" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="D133" t="s">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="E133" s="4">
         <v>45773</v>
@@ -10632,13 +10632,13 @@
       </c>
       <c r="H133"/>
       <c r="I133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J133" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="K133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L133" t="s">
         <v>5</v>
@@ -10649,7 +10649,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="C134" t="s">
         <v>54</v>
@@ -10665,16 +10665,16 @@
         <v>36</v>
       </c>
       <c r="H134" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I134" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J134" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K134" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L134" t="s">
         <v>32</v>
@@ -10682,16 +10682,16 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="B135" t="s">
-        <v>1005</v>
+        <v>965</v>
       </c>
       <c r="C135" t="s">
-        <v>782</v>
+        <v>742</v>
       </c>
       <c r="D135" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="E135" s="4">
         <v>45201</v>
@@ -10703,19 +10703,19 @@
         <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I135" t="s">
-        <v>552</v>
+        <v>1023</v>
       </c>
       <c r="J135" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K135" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L135" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -10723,10 +10723,10 @@
         <v>249</v>
       </c>
       <c r="B136" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="C136" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
       <c r="D136"/>
       <c r="E136" s="4">
@@ -10740,16 +10740,16 @@
       </c>
       <c r="H136"/>
       <c r="I136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J136" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="K136" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -10757,7 +10757,7 @@
         <v>173</v>
       </c>
       <c r="B137" t="s">
-        <v>784</v>
+        <v>744</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -10774,13 +10774,13 @@
       </c>
       <c r="H137"/>
       <c r="I137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J137" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K137" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L137" t="s">
         <v>97</v>
@@ -10788,13 +10788,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="B138" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
       <c r="C138" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
       <c r="D138"/>
       <c r="E138" s="4">
@@ -10808,16 +10808,16 @@
       </c>
       <c r="H138"/>
       <c r="I138" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J138" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K138" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L138" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -10825,13 +10825,13 @@
         <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>1008</v>
+        <v>968</v>
       </c>
       <c r="C139" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
       <c r="D139" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="E139" s="4">
         <v>45211</v>
@@ -10844,13 +10844,13 @@
       </c>
       <c r="H139"/>
       <c r="I139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J139" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="K139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L139" t="s">
         <v>104</v>
@@ -10858,13 +10858,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="B140" t="s">
-        <v>1009</v>
+        <v>969</v>
       </c>
       <c r="C140" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="D140"/>
       <c r="E140" s="4">
@@ -10878,13 +10878,13 @@
       </c>
       <c r="H140"/>
       <c r="I140" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J140" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K140" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
@@ -10895,13 +10895,13 @@
         <v>234</v>
       </c>
       <c r="B141" t="s">
-        <v>1010</v>
+        <v>970</v>
       </c>
       <c r="C141" t="s">
         <v>100</v>
       </c>
       <c r="D141" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="E141" s="4">
         <v>45402</v>
@@ -10914,16 +10914,16 @@
       </c>
       <c r="H141"/>
       <c r="I141" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J141" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="K141" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L141" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -10931,7 +10931,7 @@
         <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>1011</v>
+        <v>971</v>
       </c>
       <c r="C142" t="s">
         <v>37</v>
@@ -10948,13 +10948,13 @@
       </c>
       <c r="H142"/>
       <c r="I142" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J142" t="s">
+        <v>321</v>
+      </c>
+      <c r="K142" t="s">
         <v>322</v>
-      </c>
-      <c r="K142" t="s">
-        <v>323</v>
       </c>
       <c r="L142" t="s">
         <v>38</v>
@@ -10965,10 +10965,10 @@
         <v>179</v>
       </c>
       <c r="B143" t="s">
-        <v>1012</v>
+        <v>972</v>
       </c>
       <c r="C143" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="4">
@@ -10982,16 +10982,16 @@
       </c>
       <c r="H143"/>
       <c r="I143" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J143" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L143" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -10999,13 +10999,13 @@
         <v>261</v>
       </c>
       <c r="B144" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
       <c r="C144" t="s">
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="E144" s="4">
         <v>45105</v>
@@ -11018,16 +11018,16 @@
       </c>
       <c r="H144"/>
       <c r="I144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J144" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L144" t="s">
-        <v>454</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -11035,13 +11035,13 @@
         <v>210</v>
       </c>
       <c r="B145" t="s">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="C145" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="D145" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="E145" s="4">
         <v>45684</v>
@@ -11054,16 +11054,16 @@
       </c>
       <c r="H145"/>
       <c r="I145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J145" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K145" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L145" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -11071,10 +11071,10 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>1014</v>
+        <v>974</v>
       </c>
       <c r="C146" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="D146"/>
       <c r="E146" s="4">
@@ -11084,20 +11084,20 @@
         <v>45160</v>
       </c>
       <c r="G146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H146"/>
       <c r="I146" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J146" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K146" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L146" t="s">
-        <v>456</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -11105,13 +11105,13 @@
         <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>1015</v>
+        <v>975</v>
       </c>
       <c r="C147" t="s">
-        <v>797</v>
+        <v>757</v>
       </c>
       <c r="D147" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
       <c r="E147" s="4">
         <v>45328</v>
@@ -11124,13 +11124,13 @@
       </c>
       <c r="H147"/>
       <c r="I147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J147" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="K147" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L147" t="s">
         <v>94</v>
@@ -11141,7 +11141,7 @@
         <v>281</v>
       </c>
       <c r="B148" t="s">
-        <v>1016</v>
+        <v>976</v>
       </c>
       <c r="C148" t="s">
         <v>91</v>
@@ -11158,30 +11158,30 @@
       </c>
       <c r="H148"/>
       <c r="I148" t="s">
+        <v>320</v>
+      </c>
+      <c r="J148" t="s">
         <v>321</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>322</v>
       </c>
-      <c r="K148" t="s">
-        <v>323</v>
-      </c>
       <c r="L148" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="B149" t="s">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="C149" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="D149" t="s">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="E149" s="4">
         <v>45784</v>
@@ -11190,22 +11190,22 @@
         <v>45784</v>
       </c>
       <c r="G149" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J149" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="K149" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L149" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -11213,10 +11213,10 @@
         <v>122</v>
       </c>
       <c r="B150" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="C150" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="D150"/>
       <c r="E150" s="4">
@@ -11229,19 +11229,19 @@
         <v>36</v>
       </c>
       <c r="H150" t="s">
+        <v>337</v>
+      </c>
+      <c r="I150" t="s">
+        <v>320</v>
+      </c>
+      <c r="J150" t="s">
+        <v>386</v>
+      </c>
+      <c r="K150" t="s">
+        <v>322</v>
+      </c>
+      <c r="L150" t="s">
         <v>338</v>
-      </c>
-      <c r="I150" t="s">
-        <v>321</v>
-      </c>
-      <c r="J150" t="s">
-        <v>389</v>
-      </c>
-      <c r="K150" t="s">
-        <v>323</v>
-      </c>
-      <c r="L150" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -11249,10 +11249,10 @@
         <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>1017</v>
+        <v>977</v>
       </c>
       <c r="C151" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="4">
@@ -11266,13 +11266,13 @@
       </c>
       <c r="H151"/>
       <c r="I151" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J151" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K151" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L151" t="s">
         <v>97</v>
@@ -11283,13 +11283,13 @@
         <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>1018</v>
+        <v>978</v>
       </c>
       <c r="C152" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
       <c r="D152" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="E152" s="4">
         <v>45321</v>
@@ -11302,30 +11302,30 @@
       </c>
       <c r="H152"/>
       <c r="I152" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J152" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="K152" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L152" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="B153" t="s">
-        <v>1019</v>
+        <v>979</v>
       </c>
       <c r="C153" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="D153" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="E153" s="4">
         <v>45177</v>
@@ -11338,13 +11338,13 @@
       </c>
       <c r="H153"/>
       <c r="I153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J153" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="K153" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L153" t="s">
         <v>5</v>
@@ -11352,16 +11352,16 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="C154" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
       <c r="D154" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="E154" s="4">
         <v>45635</v>
@@ -11374,13 +11374,13 @@
       </c>
       <c r="H154"/>
       <c r="I154" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J154" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="K154" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L154" t="s">
         <v>104</v>
@@ -11388,16 +11388,16 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>292</v>
+      </c>
+      <c r="B155" t="s">
+        <v>772</v>
+      </c>
+      <c r="C155" t="s">
         <v>293</v>
       </c>
-      <c r="B155" t="s">
-        <v>812</v>
-      </c>
-      <c r="C155" t="s">
-        <v>294</v>
-      </c>
       <c r="D155" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
       <c r="E155" s="4">
         <v>45516</v>
@@ -11410,30 +11410,30 @@
       </c>
       <c r="H155"/>
       <c r="I155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J155" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K155" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L155" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="B156" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
       <c r="C156" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="D156" t="s">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="E156" s="4">
         <v>45817</v>
@@ -11446,16 +11446,16 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J156" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="K156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L156" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -11463,7 +11463,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>1021</v>
+        <v>981</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -11476,17 +11476,17 @@
         <v>44718</v>
       </c>
       <c r="G157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H157"/>
       <c r="I157" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J157" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K157" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L157" t="s">
         <v>32</v>
@@ -11497,10 +11497,10 @@
         <v>246</v>
       </c>
       <c r="B158" t="s">
-        <v>1022</v>
+        <v>982</v>
       </c>
       <c r="C158" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="4">
@@ -11514,13 +11514,13 @@
       </c>
       <c r="H158"/>
       <c r="I158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J158" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L158" t="s">
         <v>94</v>
@@ -11531,13 +11531,13 @@
         <v>287</v>
       </c>
       <c r="B159" t="s">
-        <v>1023</v>
+        <v>983</v>
       </c>
       <c r="C159" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="D159" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="E159" s="4">
         <v>45697</v>
@@ -11549,19 +11549,19 @@
         <v>4</v>
       </c>
       <c r="H159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J159" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L159" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -11569,13 +11569,13 @@
         <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>1024</v>
+        <v>984</v>
       </c>
       <c r="C160" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="D160" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="E160" s="4">
         <v>45644</v>
@@ -11587,19 +11587,19 @@
         <v>36</v>
       </c>
       <c r="H160" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="I160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J160" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K160" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L160" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -11607,13 +11607,13 @@
         <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="E161" s="4">
         <v>45376</v>
@@ -11622,22 +11622,22 @@
         <v>45664</v>
       </c>
       <c r="G161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J161" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L161" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -11645,13 +11645,13 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="E162" s="4">
         <v>45237</v>
@@ -11664,13 +11664,13 @@
       </c>
       <c r="H162"/>
       <c r="I162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J162" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L162" t="s">
         <v>13</v>
@@ -11681,7 +11681,7 @@
         <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
       <c r="C163" t="s">
         <v>16</v>
@@ -11698,13 +11698,13 @@
       </c>
       <c r="H163"/>
       <c r="I163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J163" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="K163" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -11715,7 +11715,7 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="C164" t="s">
         <v>19</v>
@@ -11732,27 +11732,27 @@
       </c>
       <c r="H164"/>
       <c r="I164" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J164" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K164" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L164" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="B165" t="s">
-        <v>1025</v>
+        <v>985</v>
       </c>
       <c r="C165" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
       <c r="D165"/>
       <c r="E165" s="4">
@@ -11766,27 +11766,27 @@
       </c>
       <c r="H165"/>
       <c r="I165" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J165" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K165" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L165" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B166" t="s">
-        <v>1026</v>
+        <v>986</v>
       </c>
       <c r="C166" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
       <c r="D166"/>
       <c r="E166" s="4">
@@ -11800,13 +11800,13 @@
       </c>
       <c r="H166"/>
       <c r="I166" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J166" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K166" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L166" t="s">
         <v>5</v>
@@ -11817,13 +11817,13 @@
         <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="C167" t="s">
         <v>69</v>
       </c>
       <c r="D167" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="E167" s="4">
         <v>45320</v>
@@ -11832,22 +11832,22 @@
         <v>45815</v>
       </c>
       <c r="G167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H167" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J167" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K167" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L167" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -11855,10 +11855,10 @@
         <v>228</v>
       </c>
       <c r="B168" t="s">
-        <v>1027</v>
+        <v>987</v>
       </c>
       <c r="C168" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="4">
@@ -11872,13 +11872,13 @@
       </c>
       <c r="H168"/>
       <c r="I168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J168" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K168" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L168" t="s">
         <v>5</v>
@@ -11889,7 +11889,7 @@
         <v>121</v>
       </c>
       <c r="B169" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="C169" t="s">
         <v>60</v>
@@ -11902,20 +11902,20 @@
         <v>45197</v>
       </c>
       <c r="G169" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H169"/>
       <c r="I169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J169" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L169" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -11923,10 +11923,10 @@
         <v>196</v>
       </c>
       <c r="B170" t="s">
-        <v>1029</v>
+        <v>989</v>
       </c>
       <c r="C170" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="D170"/>
       <c r="E170" s="4">
@@ -11939,19 +11939,19 @@
         <v>36</v>
       </c>
       <c r="H170" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I170" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J170" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L170" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -11959,13 +11959,13 @@
         <v>259</v>
       </c>
       <c r="B171" t="s">
-        <v>1030</v>
+        <v>990</v>
       </c>
       <c r="C171" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="D171" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="E171" s="4">
         <v>44658</v>
@@ -11974,31 +11974,31 @@
         <v>44896</v>
       </c>
       <c r="G171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H171"/>
       <c r="I171" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J171" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K171" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L171" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>299</v>
+      </c>
+      <c r="B172" t="s">
+        <v>991</v>
+      </c>
+      <c r="C172" t="s">
         <v>300</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C172" t="s">
-        <v>301</v>
       </c>
       <c r="D172"/>
       <c r="E172" s="4">
@@ -12012,27 +12012,27 @@
       </c>
       <c r="H172"/>
       <c r="I172" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J172" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="K172" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L172" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B173" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="C173" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="4">
@@ -12042,20 +12042,20 @@
         <v>45728</v>
       </c>
       <c r="G173" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H173"/>
       <c r="I173" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J173" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="K173" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L173" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -12063,13 +12063,13 @@
         <v>253</v>
       </c>
       <c r="B174" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
       <c r="C174" t="s">
         <v>114</v>
       </c>
       <c r="D174" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
       <c r="E174" s="4">
         <v>45688</v>
@@ -12081,30 +12081,30 @@
         <v>36</v>
       </c>
       <c r="H174" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J174" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="K174" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L174" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B175" t="s">
-        <v>1032</v>
+        <v>992</v>
       </c>
       <c r="C175" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="4">
@@ -12118,16 +12118,16 @@
       </c>
       <c r="H175"/>
       <c r="I175" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J175" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L175" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -12135,7 +12135,7 @@
         <v>245</v>
       </c>
       <c r="B176" t="s">
-        <v>1033</v>
+        <v>993</v>
       </c>
       <c r="C176" t="s">
         <v>102</v>
@@ -12152,13 +12152,13 @@
       </c>
       <c r="H176"/>
       <c r="I176" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J176" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K176" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L176" t="s">
         <v>94</v>
@@ -12169,13 +12169,13 @@
         <v>217</v>
       </c>
       <c r="B177" t="s">
-        <v>1034</v>
+        <v>994</v>
       </c>
       <c r="C177" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="D177" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="E177" s="4">
         <v>45279</v>
@@ -12184,22 +12184,22 @@
         <v>45431</v>
       </c>
       <c r="G177" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H177" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I177" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J177" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K177" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L177" t="s">
-        <v>457</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -12207,13 +12207,13 @@
         <v>128</v>
       </c>
       <c r="B178" t="s">
-        <v>843</v>
+        <v>803</v>
       </c>
       <c r="C178" t="s">
         <v>57</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>842</v>
+        <v>802</v>
       </c>
       <c r="E178" s="4">
         <v>45532</v>
@@ -12226,16 +12226,16 @@
       </c>
       <c r="H178"/>
       <c r="I178" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J178" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K178" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L178" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -12243,13 +12243,13 @@
         <v>158</v>
       </c>
       <c r="B179" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="C179" t="s">
         <v>42</v>
       </c>
       <c r="D179" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="E179" s="4">
         <v>45196</v>
@@ -12262,16 +12262,16 @@
       </c>
       <c r="H179"/>
       <c r="I179" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J179" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K179" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L179" t="s">
-        <v>458</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -12279,7 +12279,7 @@
         <v>172</v>
       </c>
       <c r="B180" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="C180" t="s">
         <v>34</v>
@@ -12292,33 +12292,33 @@
         <v>45224</v>
       </c>
       <c r="G180" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H180" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J180" t="s">
+        <v>321</v>
+      </c>
+      <c r="K180" t="s">
         <v>322</v>
       </c>
-      <c r="K180" t="s">
-        <v>323</v>
-      </c>
       <c r="L180" t="s">
-        <v>459</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="B181" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
       <c r="C181" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="D181"/>
       <c r="E181" s="4">
@@ -12328,22 +12328,22 @@
         <v>45798</v>
       </c>
       <c r="G181" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H181" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="I181" t="s">
+        <v>320</v>
+      </c>
+      <c r="J181" t="s">
         <v>321</v>
       </c>
-      <c r="J181" t="s">
+      <c r="K181" t="s">
         <v>322</v>
       </c>
-      <c r="K181" t="s">
-        <v>323</v>
-      </c>
       <c r="L181" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -12351,13 +12351,13 @@
         <v>211</v>
       </c>
       <c r="B182" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="C182" t="s">
         <v>64</v>
       </c>
       <c r="D182" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="E182" s="4">
         <v>45499</v>
@@ -12370,16 +12370,16 @@
       </c>
       <c r="H182"/>
       <c r="I182" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J182" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="K182" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L182" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -12387,13 +12387,13 @@
         <v>219</v>
       </c>
       <c r="B183" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="C183" t="s">
         <v>70</v>
       </c>
       <c r="D183" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
       <c r="E183" s="4">
         <v>45483</v>
@@ -12406,16 +12406,16 @@
       </c>
       <c r="H183"/>
       <c r="I183" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J183" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="K183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L183" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -12423,13 +12423,13 @@
         <v>230</v>
       </c>
       <c r="B184" t="s">
-        <v>1035</v>
+        <v>995</v>
       </c>
       <c r="C184" t="s">
         <v>98</v>
       </c>
       <c r="D184" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
       <c r="E184" s="4">
         <v>45462</v>
@@ -12442,13 +12442,13 @@
       </c>
       <c r="H184"/>
       <c r="I184" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J184" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="K184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L184" t="s">
         <v>99</v>
@@ -12459,13 +12459,13 @@
         <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>1036</v>
+        <v>996</v>
       </c>
       <c r="C185" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="D185" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="E185" s="4">
         <v>45201</v>
@@ -12478,13 +12478,13 @@
       </c>
       <c r="H185"/>
       <c r="I185" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J185" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="K185" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L185" t="s">
         <v>5</v>
@@ -12495,7 +12495,7 @@
         <v>240</v>
       </c>
       <c r="B186" t="s">
-        <v>1037</v>
+        <v>997</v>
       </c>
       <c r="C186" t="s">
         <v>101</v>
@@ -12512,30 +12512,30 @@
       </c>
       <c r="H186"/>
       <c r="I186" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J186" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="K186" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L186" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="B187" t="s">
-        <v>1038</v>
+        <v>998</v>
       </c>
       <c r="C187" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="D187" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
       <c r="E187" s="4">
         <v>45821</v>
@@ -12544,36 +12544,36 @@
         <v>45821</v>
       </c>
       <c r="G187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H187" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="I187" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J187" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K187" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L187" t="s">
-        <v>461</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="C188" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="D188" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="E188" s="4">
         <v>45817</v>
@@ -12585,19 +12585,19 @@
         <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I188" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J188" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="K188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L188" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -12605,13 +12605,13 @@
         <v>239</v>
       </c>
       <c r="B189" t="s">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="C189" t="s">
         <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="E189" s="4">
         <v>45379</v>
@@ -12624,16 +12624,16 @@
       </c>
       <c r="H189"/>
       <c r="I189" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J189" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="K189" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L189" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -12641,7 +12641,7 @@
         <v>274</v>
       </c>
       <c r="B190" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="C190" t="s">
         <v>90</v>
@@ -12658,30 +12658,30 @@
       </c>
       <c r="H190"/>
       <c r="I190" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J190" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="K190" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L190" t="s">
-        <v>460</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B191" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="C191" t="s">
-        <v>863</v>
+        <v>823</v>
       </c>
       <c r="D191" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="E191" s="4">
         <v>45159</v>
@@ -12694,30 +12694,30 @@
       </c>
       <c r="H191"/>
       <c r="I191" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J191" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K191" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L191" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="B192" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
       <c r="C192" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="D192" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="E192" s="4">
         <v>45754</v>
@@ -12729,19 +12729,19 @@
         <v>36</v>
       </c>
       <c r="H192" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I192" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J192" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="K192" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L192" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -12749,13 +12749,13 @@
         <v>138</v>
       </c>
       <c r="B193" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
       <c r="C193" t="s">
         <v>53</v>
       </c>
       <c r="D193" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="E193" s="4">
         <v>45537</v>
@@ -12767,33 +12767,33 @@
         <v>4</v>
       </c>
       <c r="H193" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J193" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L193" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="B194" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="C194" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="D194" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
       <c r="E194" s="4">
         <v>45783</v>
@@ -12805,19 +12805,19 @@
         <v>36</v>
       </c>
       <c r="H194" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="I194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J194" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="K194" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -12825,7 +12825,7 @@
         <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
@@ -12841,30 +12841,30 @@
         <v>4</v>
       </c>
       <c r="H195" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I195" t="s">
+        <v>320</v>
+      </c>
+      <c r="J195" t="s">
         <v>321</v>
       </c>
-      <c r="J195" t="s">
+      <c r="K195" t="s">
         <v>322</v>
       </c>
-      <c r="K195" t="s">
-        <v>323</v>
-      </c>
       <c r="L195" t="s">
-        <v>461</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="B196" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="C196" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
       <c r="D196"/>
       <c r="E196" s="4">
@@ -12878,16 +12878,16 @@
       </c>
       <c r="H196"/>
       <c r="I196" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L196" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -12895,10 +12895,10 @@
         <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="C197" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="4">
@@ -12912,13 +12912,13 @@
       </c>
       <c r="H197"/>
       <c r="I197" t="s">
+        <v>429</v>
+      </c>
+      <c r="J197" t="s">
         <v>436</v>
       </c>
-      <c r="J197" t="s">
-        <v>468</v>
-      </c>
       <c r="K197" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L197" t="s">
         <v>97</v>
@@ -12926,13 +12926,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="B198" t="s">
-        <v>1043</v>
+        <v>1003</v>
       </c>
       <c r="C198" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="4">
@@ -12946,16 +12946,16 @@
       </c>
       <c r="H198"/>
       <c r="I198" t="s">
-        <v>552</v>
+        <v>1023</v>
       </c>
       <c r="J198" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K198" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L198" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -12963,10 +12963,10 @@
         <v>247</v>
       </c>
       <c r="B199" t="s">
-        <v>1044</v>
+        <v>1004</v>
       </c>
       <c r="C199" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
       <c r="D199"/>
       <c r="E199" s="4">
@@ -12980,30 +12980,30 @@
       </c>
       <c r="H199"/>
       <c r="I199" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J199" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K199" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L199" t="s">
-        <v>426</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="B200" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="C200" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="D200" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="E200" s="4">
         <v>45770</v>
@@ -13016,16 +13016,16 @@
       </c>
       <c r="H200"/>
       <c r="I200" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J200" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K200" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L200" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -13033,11 +13033,11 @@
         <v>166</v>
       </c>
       <c r="B201" t="s">
-        <v>1045</v>
+        <v>1005</v>
       </c>
       <c r="C201"/>
       <c r="D201" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="E201" s="4">
         <v>45414</v>
@@ -13049,19 +13049,19 @@
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I201" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J201" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="K201" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L201" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -13069,7 +13069,7 @@
         <v>221</v>
       </c>
       <c r="B202" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="C202" t="s">
         <v>112</v>
@@ -13082,17 +13082,17 @@
         <v>45700</v>
       </c>
       <c r="G202" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H202"/>
       <c r="I202" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J202" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K202" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L202" t="s">
         <v>97</v>
@@ -13103,13 +13103,13 @@
         <v>244</v>
       </c>
       <c r="B203" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="C203" t="s">
         <v>83</v>
       </c>
       <c r="D203" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="E203" s="4">
         <v>45452</v>
@@ -13121,19 +13121,19 @@
         <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I203" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J203" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="K203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L203" t="s">
-        <v>462</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -13141,7 +13141,7 @@
         <v>181</v>
       </c>
       <c r="B204" t="s">
-        <v>1046</v>
+        <v>1006</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -13158,27 +13158,27 @@
       </c>
       <c r="H204"/>
       <c r="I204" t="s">
+        <v>320</v>
+      </c>
+      <c r="J204" t="s">
         <v>321</v>
       </c>
-      <c r="J204" t="s">
+      <c r="K204" t="s">
         <v>322</v>
       </c>
-      <c r="K204" t="s">
-        <v>323</v>
-      </c>
       <c r="L204" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="C205" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D205"/>
       <c r="E205" s="4">
@@ -13191,19 +13191,19 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I205" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L205" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -13211,13 +13211,13 @@
         <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>1047</v>
+        <v>1007</v>
       </c>
       <c r="C206" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="D206" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="E206" s="4">
         <v>45384</v>
@@ -13229,16 +13229,16 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J206" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="K206" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L206" t="s">
         <v>97</v>
@@ -13249,13 +13249,13 @@
         <v>157</v>
       </c>
       <c r="B207" t="s">
-        <v>1048</v>
+        <v>1008</v>
       </c>
       <c r="C207" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D207" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="E207" s="4">
         <v>44579</v>
@@ -13268,16 +13268,16 @@
       </c>
       <c r="H207"/>
       <c r="I207" t="s">
+        <v>315</v>
+      </c>
+      <c r="J207" t="s">
+        <v>436</v>
+      </c>
+      <c r="K207" t="s">
+        <v>314</v>
+      </c>
+      <c r="L207" t="s">
         <v>316</v>
-      </c>
-      <c r="J207" t="s">
-        <v>468</v>
-      </c>
-      <c r="K207" t="s">
-        <v>315</v>
-      </c>
-      <c r="L207" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -13285,13 +13285,13 @@
         <v>188</v>
       </c>
       <c r="B208" t="s">
-        <v>1049</v>
+        <v>1009</v>
       </c>
       <c r="C208" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="D208" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="E208" s="4">
         <v>45601</v>
@@ -13303,19 +13303,19 @@
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I208" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J208" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L208" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -13323,13 +13323,13 @@
         <v>126</v>
       </c>
       <c r="B209" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
       <c r="C209" t="s">
         <v>58</v>
       </c>
       <c r="D209" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
       <c r="E209" s="4">
         <v>45320</v>
@@ -13341,19 +13341,19 @@
         <v>36</v>
       </c>
       <c r="H209" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I209" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J209" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L209" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -13361,10 +13361,10 @@
         <v>231</v>
       </c>
       <c r="B210" t="s">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="C210" t="s">
-        <v>894</v>
+        <v>854</v>
       </c>
       <c r="D210"/>
       <c r="E210" s="4">
@@ -13378,16 +13378,16 @@
       </c>
       <c r="H210"/>
       <c r="I210" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J210" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K210" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L210" t="s">
-        <v>463</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -13395,7 +13395,7 @@
         <v>285</v>
       </c>
       <c r="B211" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="C211" t="s">
         <v>92</v>
@@ -13412,13 +13412,13 @@
       </c>
       <c r="H211"/>
       <c r="I211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J211" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K211" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L211" t="s">
         <v>82</v>
@@ -13429,13 +13429,13 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>1051</v>
+        <v>1011</v>
       </c>
       <c r="C212" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
       <c r="D212" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="E212" s="4">
         <v>44634</v>
@@ -13448,30 +13448,30 @@
       </c>
       <c r="H212"/>
       <c r="I212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J212" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K212" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L212" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>288</v>
+      </c>
+      <c r="B213" t="s">
+        <v>857</v>
+      </c>
+      <c r="C213" t="s">
         <v>289</v>
       </c>
-      <c r="B213" t="s">
-        <v>897</v>
-      </c>
-      <c r="C213" t="s">
-        <v>290</v>
-      </c>
       <c r="D213" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
       <c r="E213" s="4">
         <v>45719</v>
@@ -13484,27 +13484,27 @@
       </c>
       <c r="H213"/>
       <c r="I213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J213" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="K213" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L213" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="B214" t="s">
-        <v>1052</v>
+        <v>1012</v>
       </c>
       <c r="C214" t="s">
-        <v>899</v>
+        <v>859</v>
       </c>
       <c r="D214"/>
       <c r="E214" s="4">
@@ -13514,20 +13514,20 @@
         <v>45632</v>
       </c>
       <c r="G214" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H214"/>
       <c r="I214" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J214" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="K214" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L214" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -13535,13 +13535,13 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="C215" t="s">
         <v>74</v>
       </c>
       <c r="D215" t="s">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="E215" s="4">
         <v>45635</v>
@@ -13550,17 +13550,17 @@
         <v>45635</v>
       </c>
       <c r="G215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H215"/>
       <c r="I215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J215" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="K215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L215" t="s">
         <v>82</v>
@@ -13571,13 +13571,13 @@
         <v>277</v>
       </c>
       <c r="B216" t="s">
-        <v>1053</v>
+        <v>1013</v>
       </c>
       <c r="C216" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="D216" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="E216" s="4">
         <v>45092</v>
@@ -13590,27 +13590,27 @@
       </c>
       <c r="H216"/>
       <c r="I216" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J216" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K216" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L216" t="s">
-        <v>427</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="B217" t="s">
-        <v>1054</v>
+        <v>1014</v>
       </c>
       <c r="C217" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="D217"/>
       <c r="E217" s="4">
@@ -13624,27 +13624,27 @@
       </c>
       <c r="H217"/>
       <c r="I217" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J217" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K217" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L217" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B218" t="s">
-        <v>1055</v>
+        <v>1015</v>
       </c>
       <c r="C218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D218"/>
       <c r="E218" s="4">
@@ -13658,27 +13658,27 @@
       </c>
       <c r="H218"/>
       <c r="I218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J218" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="K218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L218" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="B219" t="s">
-        <v>906</v>
+        <v>866</v>
       </c>
       <c r="C219" t="s">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="D219"/>
       <c r="E219" s="4">
@@ -13692,16 +13692,16 @@
       </c>
       <c r="H219"/>
       <c r="I219" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J219" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L219" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -13709,13 +13709,13 @@
         <v>254</v>
       </c>
       <c r="B220" t="s">
-        <v>1056</v>
+        <v>1016</v>
       </c>
       <c r="C220" t="s">
         <v>103</v>
       </c>
       <c r="D220" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="E220" s="4">
         <v>45450</v>
@@ -13724,20 +13724,20 @@
         <v>45450</v>
       </c>
       <c r="G220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H220"/>
       <c r="I220" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J220" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K220" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L220" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -13745,7 +13745,7 @@
         <v>153</v>
       </c>
       <c r="B221" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="C221" t="s">
         <v>18</v>
@@ -13762,16 +13762,16 @@
       </c>
       <c r="H221"/>
       <c r="I221" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J221" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="K221" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L221" t="s">
-        <v>497</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -13779,13 +13779,13 @@
         <v>205</v>
       </c>
       <c r="B222" t="s">
-        <v>1057</v>
+        <v>1017</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
       <c r="E222" s="4">
         <v>45318</v>
@@ -13798,27 +13798,27 @@
       </c>
       <c r="H222"/>
       <c r="I222" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J222" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="K222" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L222" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="B223" t="s">
-        <v>1058</v>
+        <v>1018</v>
       </c>
       <c r="C223" t="s">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="D223"/>
       <c r="E223" s="4">
@@ -13828,22 +13828,22 @@
         <v>45758</v>
       </c>
       <c r="G223" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I223" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J223" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K223" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L223" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -13851,10 +13851,10 @@
         <v>137</v>
       </c>
       <c r="B224" t="s">
-        <v>1059</v>
+        <v>1019</v>
       </c>
       <c r="C224" t="s">
-        <v>911</v>
+        <v>871</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="4">
@@ -13868,16 +13868,16 @@
       </c>
       <c r="H224"/>
       <c r="I224" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J224" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K224" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L224" t="s">
-        <v>425</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -13885,10 +13885,10 @@
         <v>160</v>
       </c>
       <c r="B225" t="s">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="C225" t="s">
-        <v>912</v>
+        <v>872</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="4">
@@ -13902,13 +13902,13 @@
       </c>
       <c r="H225"/>
       <c r="I225" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J225" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="K225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L225" t="s">
         <v>32</v>
@@ -13916,16 +13916,16 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>309</v>
+      </c>
+      <c r="B226" t="s">
+        <v>874</v>
+      </c>
+      <c r="C226" t="s">
         <v>310</v>
       </c>
-      <c r="B226" t="s">
-        <v>914</v>
-      </c>
-      <c r="C226" t="s">
-        <v>311</v>
-      </c>
       <c r="D226" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
       <c r="E226" s="4">
         <v>45738</v>
@@ -13934,22 +13934,22 @@
         <v>45738</v>
       </c>
       <c r="G226" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H226" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J226" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K226" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L226" t="s">
-        <v>464</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -13957,7 +13957,7 @@
         <v>283</v>
       </c>
       <c r="B227" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="C227" t="s">
         <v>109</v>
@@ -13970,22 +13970,22 @@
         <v>45551</v>
       </c>
       <c r="G227" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H227" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I227" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J227" t="s">
+        <v>321</v>
+      </c>
+      <c r="K227" t="s">
         <v>322</v>
       </c>
-      <c r="K227" t="s">
-        <v>323</v>
-      </c>
       <c r="L227" t="s">
-        <v>288</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13993,10 +13993,10 @@
         <v>243</v>
       </c>
       <c r="B228" t="s">
-        <v>1061</v>
+        <v>1021</v>
       </c>
       <c r="C228" t="s">
-        <v>916</v>
+        <v>876</v>
       </c>
       <c r="D228"/>
       <c r="E228" s="4">
@@ -14010,13 +14010,13 @@
       </c>
       <c r="H228"/>
       <c r="I228" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J228" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L228" t="s">
         <v>32</v>
